--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efna2-Epha5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efna2-Epha5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Efna2</t>
+  </si>
+  <si>
+    <t>Epha5</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Efna2</t>
-  </si>
-  <si>
-    <t>Epha5</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.408030333333333</v>
+        <v>2.015377</v>
       </c>
       <c r="H2">
-        <v>4.224091</v>
+        <v>6.046131</v>
       </c>
       <c r="I2">
-        <v>0.3454737251382253</v>
+        <v>0.7554960962715589</v>
       </c>
       <c r="J2">
-        <v>0.3454737251382253</v>
+        <v>0.7554960962715588</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,42 +552,42 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.01399966666666667</v>
+        <v>0.008504666666666666</v>
       </c>
       <c r="N2">
-        <v>0.041999</v>
+        <v>0.025514</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.3779124020559003</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.3779124020559003</v>
       </c>
       <c r="Q2">
-        <v>0.01971195532322222</v>
+        <v>0.01714010959266666</v>
       </c>
       <c r="R2">
-        <v>0.177407597909</v>
+        <v>0.154260986334</v>
       </c>
       <c r="S2">
-        <v>0.3454737251382253</v>
+        <v>0.2855113444858405</v>
       </c>
       <c r="T2">
-        <v>0.3454737251382253</v>
+        <v>0.2855113444858405</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,10 +602,10 @@
         <v>6.046131</v>
       </c>
       <c r="I3">
-        <v>0.494492045565236</v>
+        <v>0.7554960962715589</v>
       </c>
       <c r="J3">
-        <v>0.4944920455652361</v>
+        <v>0.7554960962715588</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,10 +620,10 @@
         <v>0.041999</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.6220875979440996</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.6220875979440996</v>
       </c>
       <c r="Q3">
         <v>0.02821460620766667</v>
@@ -632,24 +632,24 @@
         <v>0.253931455869</v>
       </c>
       <c r="S3">
-        <v>0.494492045565236</v>
+        <v>0.4699847517857183</v>
       </c>
       <c r="T3">
-        <v>0.4944920455652361</v>
+        <v>0.4699847517857182</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,10 +664,10 @@
         <v>1.956731</v>
       </c>
       <c r="I4">
-        <v>0.1600342292965385</v>
+        <v>0.2445039037284412</v>
       </c>
       <c r="J4">
-        <v>0.1600342292965385</v>
+        <v>0.2445039037284411</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,90 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
+        <v>0.008504666666666666</v>
+      </c>
+      <c r="N4">
+        <v>0.025514</v>
+      </c>
+      <c r="O4">
+        <v>0.3779124020559003</v>
+      </c>
+      <c r="P4">
+        <v>0.3779124020559003</v>
+      </c>
+      <c r="Q4">
+        <v>0.005547114970444444</v>
+      </c>
+      <c r="R4">
+        <v>0.049924034734</v>
+      </c>
+      <c r="S4">
+        <v>0.09240105757005979</v>
+      </c>
+      <c r="T4">
+        <v>0.09240105757005979</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.6522436666666667</v>
+      </c>
+      <c r="H5">
+        <v>1.956731</v>
+      </c>
+      <c r="I5">
+        <v>0.2445039037284412</v>
+      </c>
+      <c r="J5">
+        <v>0.2445039037284411</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
         <v>0.01399966666666667</v>
       </c>
-      <c r="N4">
+      <c r="N5">
         <v>0.041999</v>
       </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
+      <c r="O5">
+        <v>0.6220875979440996</v>
+      </c>
+      <c r="P5">
+        <v>0.6220875979440996</v>
+      </c>
+      <c r="Q5">
         <v>0.009131193918777779</v>
       </c>
-      <c r="R4">
+      <c r="R5">
         <v>0.082180745269</v>
       </c>
-      <c r="S4">
-        <v>0.1600342292965385</v>
-      </c>
-      <c r="T4">
-        <v>0.1600342292965385</v>
+      <c r="S5">
+        <v>0.1521028461583813</v>
+      </c>
+      <c r="T5">
+        <v>0.1521028461583813</v>
       </c>
     </row>
   </sheetData>
